--- a/pinout.xlsx
+++ b/pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\arduino\edgetx_esp\espidf5_edgetx\main\edgetx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC2169-4201-4177-822C-7336BB673EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED594E88-D676-42BA-AB8E-79814B9AA084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52695" yWindow="5340" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -386,11 +386,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -406,6 +417,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -689,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +763,7 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -793,7 +805,7 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -835,8 +847,8 @@
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>82</v>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -891,8 +903,8 @@
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>84</v>
+      <c r="D14" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1013,8 +1025,8 @@
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>64</v>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -1337,8 +1349,8 @@
       <c r="C49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>69</v>
+      <c r="D49" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
